--- a/work/Ni相关影响探究.xlsx
+++ b/work/Ni相关影响探究.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3686CDD-22BE-4BA7-819E-1ADBCD05AB26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="稳定性影响" sheetId="1" r:id="rId1"/>
-    <sheet name="酸含量对测试结果的影响" sheetId="4" r:id="rId2"/>
-    <sheet name="Ni释放QC在不同标曲的回收率" sheetId="3" r:id="rId3"/>
+    <sheet name="烘箱7天稳定性" sheetId="5" r:id="rId2"/>
+    <sheet name="酸含量对测试结果的影响" sheetId="4" r:id="rId3"/>
+    <sheet name="Ni释放QC在不同标曲的回收率" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -480,12 +488,122 @@
     <t>酸的含量对Ni测试结果的影响</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>酸配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ni</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试溶度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烘箱7天稳定性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recovery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>注：样品在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0905-0912</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>℃烘箱恒温，都在汗液标曲下测试</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：样品均在同一标曲下测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溶度/ppm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：每天QC都是同一个，在不同标曲测试（即基质不同）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +640,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -717,12 +842,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,11 +868,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,6 +875,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -775,20 +908,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,9 +935,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,9 +950,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -849,7 +991,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1897,7 +2039,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2375,7 +2517,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2465,7 +2607,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ni释放QC在不同标曲的回收率!$A$3</c:f>
+              <c:f>Ni释放QC在不同标曲的回收率!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2500,7 +2642,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Ni释放QC在不同标曲的回收率!$C$2:$H$2</c:f>
+              <c:f>Ni释放QC在不同标曲的回收率!$D$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2527,7 +2669,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ni释放QC在不同标曲的回收率!$C$4:$H$4</c:f>
+              <c:f>Ni释放QC在不同标曲的回收率!$D$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2564,7 +2706,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ni释放QC在不同标曲的回收率!$A$5</c:f>
+              <c:f>Ni释放QC在不同标曲的回收率!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2599,7 +2741,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Ni释放QC在不同标曲的回收率!$C$2:$H$2</c:f>
+              <c:f>Ni释放QC在不同标曲的回收率!$D$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2626,7 +2768,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ni释放QC在不同标曲的回收率!$C$6:$H$6</c:f>
+              <c:f>Ni释放QC在不同标曲的回收率!$D$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4530,14 +4672,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4570,15 +4712,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>614363</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4902,593 +5044,595 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="38"/>
+    <col min="2" max="2" width="24.59765625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="8.46484375" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="10.46484375" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.86328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="17">
         <v>20170906</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="17">
         <v>20170907</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="17">
         <v>20170908</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="17">
         <v>20170911</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="17">
         <v>20170912</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1.33513E-2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>1.39337E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>1.20391E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>1.11637E-2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>1.00105E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="7" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="22"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="14">
         <f t="shared" ref="D5:H5" si="0">D4/$C$4%</f>
         <v>13.3513</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="14">
         <f t="shared" si="0"/>
         <v>13.9337</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="14">
         <f t="shared" si="0"/>
         <v>12.039099999999999</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="14">
         <f t="shared" si="0"/>
         <v>11.1637</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="14">
         <f t="shared" si="0"/>
         <v>10.0105</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="22"/>
+      <c r="B6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>3.0368699999999998E-2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>3.28467E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>1.90835E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>3.0094800000000001E-2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>2.2654199999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="22"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="14">
         <f t="shared" ref="D7:H7" si="1">D6/$C$6%</f>
         <v>30.368699999999997</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="14">
         <f t="shared" si="1"/>
         <v>32.846699999999998</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="14">
         <f t="shared" si="1"/>
         <v>19.083500000000001</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="14">
         <f t="shared" si="1"/>
         <v>30.094799999999999</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="14">
         <f t="shared" si="1"/>
         <v>22.654199999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>0.10879999999999999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0.115424</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.121629</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>0.106847</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>9.5624000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="23"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f t="shared" ref="D9:H9" si="2">D8/$C$8%</f>
         <v>108.8</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <f t="shared" si="2"/>
         <v>115.42399999999999</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <f t="shared" si="2"/>
         <v>121.629</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <f t="shared" si="2"/>
         <v>106.84699999999999</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f t="shared" si="2"/>
         <v>95.623999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="23"/>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0.11006100000000001</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0.11337</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.12248199999999999</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>0.10338600000000001</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>9.7465499999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="23"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f t="shared" ref="D11:H11" si="3">D10/$C$10%</f>
         <v>110.06100000000001</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <f t="shared" si="3"/>
         <v>113.36999999999999</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f t="shared" si="3"/>
         <v>122.48199999999999</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <f t="shared" si="3"/>
         <v>103.38600000000001</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <f t="shared" si="3"/>
         <v>97.465499999999992</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="16" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="16" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="17">
         <v>20170905</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="17">
         <v>20170906</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="17">
         <v>20170907</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="17">
         <v>20170908</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="17">
         <v>20170911</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="17">
         <v>20170912</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.1</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>0.10255300000000001</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>0.10382</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="3">
         <v>8.4065899999999999E-2</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="3">
         <v>9.3299900000000005E-2</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="3">
         <v>0.105966</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>8.8206800000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="20"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="8" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="22"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <f t="shared" ref="D19:I19" si="4">D18/$C$4%</f>
         <v>102.553</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <f t="shared" si="4"/>
         <v>103.82</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <f t="shared" si="4"/>
         <v>84.065899999999999</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <f t="shared" si="4"/>
         <v>93.299900000000008</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <f t="shared" si="4"/>
         <v>105.96600000000001</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <f t="shared" si="4"/>
         <v>88.206800000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="22"/>
+      <c r="B20" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.1</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>0.10430499999999999</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>9.7741400000000006E-2</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="3">
         <v>8.6307999999999996E-2</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="3">
         <v>9.2239699999999994E-2</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="3">
         <v>9.6402699999999994E-2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>0.100537</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="8" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="31"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <f t="shared" ref="D21:I21" si="5">D20/$C$8%</f>
         <v>104.30499999999999</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <f t="shared" si="5"/>
         <v>97.741399999999999</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <f t="shared" si="5"/>
         <v>86.307999999999993</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <f t="shared" si="5"/>
         <v>92.239699999999985</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <f t="shared" si="5"/>
         <v>96.402699999999996</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <f t="shared" si="5"/>
         <v>100.53700000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.1</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>0.105083</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>0.104972</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="43">
         <v>9.1799900000000004E-2</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="3">
         <v>0.11198900000000001</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="3">
         <v>0.102924</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>8.5443599999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="20"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="8" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="22"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <f t="shared" ref="D23:I23" si="6">D22/$C$22%</f>
         <v>105.083</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <f t="shared" si="6"/>
         <v>104.97199999999999</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <f t="shared" si="6"/>
         <v>91.799900000000008</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <f t="shared" si="6"/>
         <v>111.989</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <f t="shared" si="6"/>
         <v>102.92399999999999</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <f t="shared" si="6"/>
         <v>85.443599999999989</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="22"/>
+      <c r="B24" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>0.1</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>0.12570600000000001</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>0.10576099999999999</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="3">
         <v>9.41636E-2</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="3">
         <v>9.7194699999999995E-2</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="3">
         <v>9.9788299999999996E-2</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>0.125028</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="8" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="31"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <f t="shared" ref="D25:I25" si="7">D24/$C$24%</f>
         <v>125.706</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <f t="shared" si="7"/>
         <v>105.761</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <f t="shared" si="7"/>
         <v>94.163600000000002</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <f t="shared" si="7"/>
         <v>97.194699999999997</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <f t="shared" si="7"/>
         <v>99.788299999999992</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <f t="shared" si="7"/>
         <v>125.02799999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="23" t="s">
         <v>18</v>
       </c>
@@ -5501,7 +5645,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -5535,242 +5679,544 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="15"/>
+    <col min="1" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1.0889599999999999E-2</v>
+      </c>
+      <c r="F3" s="14">
+        <f>E3/$C$3%</f>
+        <v>10.8896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="24"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="13">
+        <v>1.2460799999999999E-2</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" ref="F4:F10" si="0">E4/$C$3%</f>
+        <v>12.460799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="24"/>
+      <c r="B5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="13">
+        <v>4.6688899999999998E-2</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="0"/>
+        <v>46.688899999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="24"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="13">
+        <v>5.3517099999999998E-2</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>53.517099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="13">
+        <v>0.14319200000000001</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>143.19200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="24"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="13">
+        <v>9.9747699999999995E-2</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>99.747699999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="24"/>
+      <c r="B9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="13">
+        <v>0.101632</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>101.63200000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="24"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="13">
+        <v>0.107778</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>107.77799999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.14319200000000001</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" ref="F18:F22" si="1">E18/$C$3%</f>
+        <v>143.19200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="24"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="17">
+        <v>9.9747699999999995E-2</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="1"/>
+        <v>99.747699999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="24"/>
+      <c r="B20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="17">
+        <v>0.101632</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="1"/>
+        <v>101.63200000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="24"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="17">
+        <v>0.107778</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="1"/>
+        <v>107.77799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="13"/>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="9"/>
+      <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="9">
         <v>0</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="34">
         <v>0.1</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="9">
         <v>4.5059499999999999E-3</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="14">
         <f>E3/$D$3%</f>
         <v>4.5059499999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="24"/>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="13">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="9">
         <v>1.06429E-2</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="14">
         <f t="shared" ref="F4:F14" si="0">E4/$D$3%</f>
         <v>10.642900000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="24"/>
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <v>0.2</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="13">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="9">
         <v>0.13925299999999999</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>139.25299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="24"/>
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>0.2</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="13">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="9">
         <v>0.10169499999999999</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>101.69499999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="24"/>
-      <c r="B7" s="13">
+      <c r="B7" s="9">
         <v>0.6</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="13">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="9">
         <v>0.10124900000000001</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>101.24900000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="24"/>
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>0.6</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="13">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="9">
         <v>9.7533900000000007E-2</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>97.533900000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="9">
         <v>0</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="13">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="9">
         <v>2.4851600000000001E-3</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="14">
         <f t="shared" si="0"/>
         <v>2.48516</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="24"/>
-      <c r="B10" s="13">
+      <c r="B10" s="9">
         <v>0</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="13">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="9">
         <v>5.31771E-4</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="14">
         <f t="shared" si="0"/>
         <v>0.53177099999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="24"/>
-      <c r="B11" s="13">
+      <c r="B11" s="9">
         <v>0.2</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="13">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="9">
         <v>0.102019</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>102.01899999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="24"/>
-      <c r="B12" s="13">
+      <c r="B12" s="9">
         <v>0.2</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="13">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="9">
         <v>9.8229899999999995E-2</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>98.229899999999986</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="24"/>
-      <c r="B13" s="13">
+      <c r="B13" s="9">
         <v>0.6</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="13">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="9">
         <v>9.8265900000000003E-2</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>98.265900000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="24"/>
-      <c r="B14" s="13">
+      <c r="B14" s="9">
         <v>0.6</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="13">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="9">
         <v>9.9701700000000004E-2</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f t="shared" si="0"/>
         <v>99.701700000000002</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A15:F15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C3:C14"/>
     <mergeCell ref="A3:A8"/>
@@ -5784,176 +6230,190 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="24" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
         <v>20170906</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E3" s="1">
         <v>20170907</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F3" s="1">
         <v>20170908</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G3" s="1">
         <v>20170911</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H3" s="1">
         <v>20170912</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I3" s="1">
         <v>20170913</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="23" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D4" s="1">
         <v>8.1755300000000003E-2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E4" s="1">
         <v>6.7312999999999998E-2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F4" s="1">
         <v>7.31406E-2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G4" s="1">
         <v>8.4773500000000002E-2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H4" s="1">
         <v>5.6841299999999997E-2</v>
       </c>
-      <c r="H3">
+      <c r="I4" s="15">
         <v>8.8738999999999998E-2</v>
       </c>
-      <c r="J3" s="14">
+      <c r="K4" s="10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="23"/>
-      <c r="B4" s="8" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="23"/>
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="8">
-        <f>C3/$J$3%</f>
+      <c r="D5" s="7">
+        <f>D4/$K$4%</f>
         <v>81.755300000000005</v>
       </c>
-      <c r="D4" s="8">
-        <f t="shared" ref="D4:H4" si="0">D3/$J$3%</f>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:I5" si="0">E4/$K$4%</f>
         <v>67.313000000000002</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>73.140599999999992</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>84.773499999999999</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>56.841299999999997</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
         <v>88.73899999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="23" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D6" s="1">
         <v>0.120008</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E6" s="1">
         <v>0.130466</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="1">
         <v>0.13497999999999999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G6" s="1">
         <v>0.102973</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H6" s="1">
         <v>0.102455</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I6" s="1">
         <v>0.100565</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="23"/>
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="23"/>
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8">
-        <f>C5/$J$3%</f>
+      <c r="D7" s="7">
+        <f>D6/$K$4%</f>
         <v>120.008</v>
       </c>
-      <c r="D6" s="8">
-        <f t="shared" ref="D6:H6" si="1">D5/$J$3%</f>
+      <c r="E7" s="7">
+        <f t="shared" ref="E7:I7" si="1">E6/$K$4%</f>
         <v>130.46600000000001</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
         <v>134.97999999999999</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G7" s="7">
         <f t="shared" si="1"/>
         <v>102.973</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>102.455</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I7" s="7">
         <f t="shared" si="1"/>
         <v>100.565</v>
       </c>
     </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>